--- a/氣象性能評估工具V2/data/obs/2016-06-25_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-25_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="204">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>23.8</t>
+  </si>
+  <si>
     <t>2016-06-25-00</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>27.2</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>27.0</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>2016-06-25-01</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
     <t>24.6</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>26.5</t>
   </si>
   <si>
+    <t>24.1</t>
+  </si>
+  <si>
     <t>2016-06-25-03</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
     <t>25.1</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>29.4</t>
   </si>
   <si>
+    <t>23.6</t>
+  </si>
+  <si>
     <t>2016-06-25-04</t>
   </si>
   <si>
-    <t>23.6</t>
-  </si>
-  <si>
     <t>26.0</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>29.5</t>
   </si>
   <si>
+    <t>23.9</t>
+  </si>
+  <si>
     <t>2016-06-25-05</t>
   </si>
   <si>
-    <t>23.9</t>
-  </si>
-  <si>
     <t>28.3</t>
   </si>
   <si>
@@ -361,12 +361,12 @@
     <t>31.1</t>
   </si>
   <si>
+    <t>24.3</t>
+  </si>
+  <si>
     <t>2016-06-25-08</t>
   </si>
   <si>
-    <t>24.3</t>
-  </si>
-  <si>
     <t>30.0</t>
   </si>
   <si>
@@ -523,12 +523,12 @@
     <t>34.4</t>
   </si>
   <si>
+    <t>25.2</t>
+  </si>
+  <si>
     <t>2016-06-25-13</t>
   </si>
   <si>
-    <t>25.2</t>
-  </si>
-  <si>
     <t>17.1</t>
   </si>
   <si>
@@ -571,22 +571,22 @@
     <t>16.7</t>
   </si>
   <si>
+    <t>23.3</t>
+  </si>
+  <si>
     <t>2016-06-25-18</t>
   </si>
   <si>
-    <t>23.3</t>
-  </si>
-  <si>
     <t>15.7</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
+    <t>22.9</t>
+  </si>
+  <si>
     <t>2016-06-25-19</t>
-  </si>
-  <si>
-    <t>22.9</t>
   </si>
   <si>
     <t>15.3</t>
@@ -632,6 +632,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -661,8 +664,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,11 +1045,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1118,11 +1122,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1195,11 +1199,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -1272,11 +1276,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -1349,11 +1353,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -1426,11 +1430,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -1503,11 +1507,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -1580,11 +1584,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
@@ -1657,11 +1661,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -1734,7 +1738,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B11" t="s">
@@ -1811,7 +1815,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B12" t="s">
@@ -1888,7 +1892,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B13" t="s">
@@ -1965,7 +1969,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B14" t="s">
@@ -2042,11 +2046,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
         <v>169</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -2119,11 +2123,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
@@ -2196,7 +2200,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B17" t="s">
@@ -2273,11 +2277,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -2350,11 +2354,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
@@ -2393,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s">
         <v>184</v>
@@ -2427,17 +2431,17 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="s">
         <v>185</v>
-      </c>
-      <c r="B20" t="s">
-        <v>186</v>
       </c>
       <c r="C20" t="s">
         <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
         <v>99</v>
@@ -2470,7 +2474,7 @@
         <v>40</v>
       </c>
       <c r="O20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P20" t="s">
         <v>187</v>
@@ -2504,11 +2508,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
         <v>189</v>
-      </c>
-      <c r="B21" t="s">
-        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
@@ -2581,7 +2585,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B22" t="s">
@@ -2658,11 +2662,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
@@ -2735,11 +2739,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
@@ -2812,7 +2816,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B25" t="s">
@@ -2822,7 +2826,7 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>166</v>
